--- a/TestFile_051522.xlsx
+++ b/TestFile_051522.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorkelleher/PycharmProjects/fantasy_project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DCABE5-9790-8F41-9037-1AC5D0E19648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238BAED1-61DD-8F45-BAEF-39C275DDDFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{3B96CC93-BE6F-6841-A189-891B5E36CD98}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/TestFile_051522.xlsx
+++ b/TestFile_051522.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorkelleher/PycharmProjects/fantasy_project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238BAED1-61DD-8F45-BAEF-39C275DDDFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B22B261-1B9D-7D44-96CC-BD2EEA3D38EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{3B96CC93-BE6F-6841-A189-891B5E36CD98}"/>
   </bookViews>
@@ -35,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="34">
   <si>
     <t>HITTING CATEGORIES</t>
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>5th</t>
   </si>
   <si>
     <t>Democracy .</t>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t>3rd</t>
   </si>
   <si>
     <t>OPS</t>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>8th</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>6th</t>
   </si>
 </sst>
 </file>
@@ -560,7 +566,7 @@
   <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,7 +620,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>907</v>
+        <v>220</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -626,7 +632,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>11</v>
@@ -638,7 +644,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>873</v>
+        <v>203</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -650,7 +656,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>11</v>
@@ -662,7 +668,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>823</v>
+        <v>203</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -674,19 +680,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>11</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>790</v>
+        <v>202</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -698,7 +704,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>11</v>
@@ -710,7 +716,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>760</v>
+        <v>200</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -722,19 +728,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>760</v>
+        <v>200</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -746,7 +752,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
         <v>11</v>
@@ -758,7 +764,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>750</v>
+        <v>191</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -770,7 +776,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
         <v>11</v>
@@ -782,7 +788,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>737</v>
+        <v>184</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -794,7 +800,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
         <v>11</v>
@@ -806,7 +812,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>722</v>
+        <v>172</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -818,7 +824,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1">
         <v>8</v>
@@ -830,7 +836,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>711</v>
+        <v>168</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -842,7 +848,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1">
         <v>11</v>
@@ -854,7 +860,7 @@
     </row>
     <row r="24" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -866,7 +872,7 @@
     </row>
     <row r="25" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
         <v>5</v>
@@ -878,19 +884,19 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1">
         <v>11</v>
@@ -902,19 +908,19 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>256</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1">
         <v>11</v>
@@ -926,19 +932,19 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1">
         <v>11</v>
@@ -949,20 +955,20 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>248</v>
+      <c r="A32" s="7">
+        <v>61</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>8</v>
+      <c r="A33" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B33" s="1">
         <v>11</v>
@@ -973,20 +979,20 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>245</v>
+      <c r="A34" s="6">
+        <v>59</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>7</v>
+      <c r="A35" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B35" s="1">
         <v>11</v>
@@ -998,19 +1004,19 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1">
         <v>11</v>
@@ -1022,43 +1028,43 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1">
         <v>11</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1">
         <v>11</v>
@@ -1070,19 +1076,19 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1">
         <v>11</v>
@@ -1094,31 +1100,31 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B45" s="1">
         <v>8</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
@@ -1130,7 +1136,7 @@
     </row>
     <row r="47" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B47" s="1">
         <v>5</v>
@@ -1142,7 +1148,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>872</v>
+        <v>240</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
@@ -1154,7 +1160,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B49" s="1">
         <v>11</v>
@@ -1166,7 +1172,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>843</v>
+        <v>228</v>
       </c>
       <c r="B50" s="1">
         <v>3</v>
@@ -1178,7 +1184,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1">
         <v>11</v>
@@ -1190,7 +1196,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>804</v>
+        <v>207</v>
       </c>
       <c r="B52" s="1">
         <v>3</v>
@@ -1202,19 +1208,19 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1">
         <v>11</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>787</v>
+        <v>197</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
@@ -1237,8 +1243,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
-        <v>781</v>
+      <c r="A56" s="6">
+        <v>195</v>
       </c>
       <c r="B56" s="1">
         <v>3</v>
@@ -1249,8 +1255,8 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>7</v>
+      <c r="A57" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B57" s="1">
         <v>11</v>
@@ -1261,8 +1267,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
-        <v>763</v>
+      <c r="A58" s="7">
+        <v>188</v>
       </c>
       <c r="B58" s="1">
         <v>3</v>
@@ -1273,8 +1279,8 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>9</v>
+      <c r="A59" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B59" s="1">
         <v>11</v>
@@ -1286,7 +1292,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>757</v>
+        <v>184</v>
       </c>
       <c r="B60" s="1">
         <v>3</v>
@@ -1310,7 +1316,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>741</v>
+        <v>182</v>
       </c>
       <c r="B62" s="1">
         <v>3</v>
@@ -1322,7 +1328,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B63" s="1">
         <v>11</v>
@@ -1334,7 +1340,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>719</v>
+        <v>180</v>
       </c>
       <c r="B64" s="1">
         <v>3</v>
@@ -1346,19 +1352,19 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B65" s="1">
         <v>11</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
-        <v>713</v>
+        <v>175</v>
       </c>
       <c r="B66" s="1">
         <v>3</v>
@@ -1370,7 +1376,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B67" s="1">
         <v>8</v>
@@ -1382,7 +1388,7 @@
     </row>
     <row r="68" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68" s="1">
         <v>2</v>
@@ -1406,19 +1412,19 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="B70" s="1">
         <v>2</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1">
         <v>11</v>
@@ -1430,31 +1436,31 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="B72" s="1">
         <v>2</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B73" s="1">
         <v>11</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="B74" s="1">
         <v>2</v>
@@ -1473,12 +1479,12 @@
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="B76" s="1">
         <v>2</v>
@@ -1490,7 +1496,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B77" s="1">
         <v>11</v>
@@ -1502,7 +1508,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -1514,7 +1520,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B79" s="1">
         <v>8</v>
@@ -1526,7 +1532,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B80" s="1">
         <v>2</v>
@@ -1538,7 +1544,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B81" s="1">
         <v>11</v>
@@ -1550,7 +1556,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B82" s="1">
         <v>2</v>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B83" s="1">
         <v>11</v>
@@ -1574,7 +1580,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B84" s="1">
         <v>2</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B85" s="1">
         <v>11</v>
@@ -1598,7 +1604,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B86" s="1">
         <v>2</v>
@@ -1610,7 +1616,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B87" s="1">
         <v>11</v>
@@ -1622,19 +1628,19 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B89" s="1">
         <v>11</v>
@@ -1646,7 +1652,7 @@
     </row>
     <row r="90" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90" s="1">
         <v>3</v>
@@ -1658,7 +1664,7 @@
     </row>
     <row r="91" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
@@ -1670,7 +1676,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
-        <v>0.26800000000000002</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="B92" s="1">
         <v>5</v>
@@ -1682,7 +1688,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B93" s="1">
         <v>11</v>
@@ -1694,7 +1700,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
-        <v>0.26700000000000002</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="B94" s="1">
         <v>5</v>
@@ -1706,7 +1712,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1">
         <v>11</v>
@@ -1718,7 +1724,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
-        <v>0.26600000000000001</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="B96" s="1">
         <v>5</v>
@@ -1730,7 +1736,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" s="1">
         <v>11</v>
@@ -1741,8 +1747,8 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
-        <v>0.26500000000000001</v>
+      <c r="A98" s="7">
+        <v>0.27100000000000002</v>
       </c>
       <c r="B98" s="1">
         <v>4</v>
@@ -1753,8 +1759,8 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
-        <v>4</v>
+      <c r="A99" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B99" s="1">
         <v>11</v>
@@ -1765,8 +1771,8 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="7">
-        <v>0.26400000000000001</v>
+      <c r="A100" s="6">
+        <v>0.26800000000000002</v>
       </c>
       <c r="B100" s="1">
         <v>5</v>
@@ -1777,8 +1783,8 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
-        <v>7</v>
+      <c r="A101" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B101" s="1">
         <v>11</v>
@@ -1790,7 +1796,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
-        <v>0.25900000000000001</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="B102" s="1">
         <v>5</v>
@@ -1814,7 +1820,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
-        <v>0.25900000000000001</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="B104" s="1">
         <v>5</v>
@@ -1826,7 +1832,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B105" s="1">
         <v>11</v>
@@ -1838,7 +1844,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
-        <v>0.25800000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="B106" s="1">
         <v>5</v>
@@ -1850,7 +1856,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B107" s="1">
         <v>11</v>
@@ -1862,7 +1868,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
-        <v>0.25600000000000001</v>
+        <v>0.251</v>
       </c>
       <c r="B108" s="1">
         <v>5</v>
@@ -1874,7 +1880,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B109" s="1">
         <v>11</v>
@@ -1886,7 +1892,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
-        <v>0.251</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="B110" s="1">
         <v>5</v>
@@ -1898,7 +1904,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B111" s="1">
         <v>8</v>
@@ -1922,7 +1928,7 @@
     </row>
     <row r="113" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A113" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B113" s="1">
         <v>3</v>
@@ -1934,7 +1940,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
-        <v>0.81399999999999995</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="B114" s="1">
         <v>5</v>
@@ -1946,7 +1952,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B115" s="1">
         <v>11</v>
@@ -1958,7 +1964,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
-        <v>0.81299999999999994</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="B116" s="1">
         <v>5</v>
@@ -1981,8 +1987,8 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
-        <v>0.81100000000000005</v>
+      <c r="A118" s="7">
+        <v>0.83399999999999996</v>
       </c>
       <c r="B118" s="1">
         <v>4</v>
@@ -1993,8 +1999,8 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
-        <v>10</v>
+      <c r="A119" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B119" s="1">
         <v>11</v>
@@ -2006,19 +2012,19 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
-        <v>0.81</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="B120" s="1">
         <v>5</v>
       </c>
       <c r="C120">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B121" s="1">
         <v>11</v>
@@ -2029,8 +2035,8 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="7">
-        <v>0.80300000000000005</v>
+      <c r="A122" s="6">
+        <v>0.80100000000000005</v>
       </c>
       <c r="B122" s="1">
         <v>5</v>
@@ -2041,8 +2047,8 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
-        <v>7</v>
+      <c r="A123" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B123" s="1">
         <v>11</v>
@@ -2054,7 +2060,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
-        <v>0.79800000000000004</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="B124" s="1">
         <v>5</v>
@@ -2066,7 +2072,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B125" s="1">
         <v>11</v>
@@ -2078,7 +2084,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
-        <v>0.78600000000000003</v>
+        <v>0.751</v>
       </c>
       <c r="B126" s="1">
         <v>5</v>
@@ -2090,7 +2096,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B127" s="1">
         <v>11</v>
@@ -2102,7 +2108,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
-        <v>0.77500000000000002</v>
+        <v>0.749</v>
       </c>
       <c r="B128" s="1">
         <v>5</v>
@@ -2114,19 +2120,19 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B129" s="1">
         <v>11</v>
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
-        <v>0.77400000000000002</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="B130" s="1">
         <v>5</v>
@@ -2138,7 +2144,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B131" s="1">
         <v>11</v>
@@ -2150,7 +2156,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
-        <v>0.76900000000000002</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="B132" s="1">
         <v>5</v>
@@ -2162,14 +2168,14 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B133" s="1">
         <v>8</v>
       </c>
       <c r="C133">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -2198,7 +2204,7 @@
     </row>
     <row r="136" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A136" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B136" s="1">
         <v>5</v>
@@ -2209,19 +2215,19 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="7">
-        <v>103</v>
+      <c r="A137" s="6">
+        <v>29</v>
       </c>
       <c r="B137" s="1">
         <v>2</v>
       </c>
       <c r="C137">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B138" s="1">
@@ -2233,8 +2239,8 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="6">
-        <v>84</v>
+      <c r="A139" s="7">
+        <v>25</v>
       </c>
       <c r="B139" s="1">
         <v>2</v>
@@ -2245,7 +2251,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B140" s="1">
@@ -2258,7 +2264,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B141" s="1">
         <v>2</v>
@@ -2270,7 +2276,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B142" s="1">
         <v>11</v>
@@ -2282,7 +2288,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B143" s="1">
         <v>2</v>
@@ -2294,7 +2300,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B144" s="1">
         <v>11</v>
@@ -2306,7 +2312,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B145" s="1">
         <v>2</v>
@@ -2318,7 +2324,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B146" s="1">
         <v>11</v>
@@ -2330,7 +2336,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="B147" s="1">
         <v>2</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B149" s="1">
         <v>2</v>
@@ -2366,19 +2372,19 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B150" s="1">
         <v>11</v>
       </c>
       <c r="C150">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="B151" s="1">
         <v>2</v>
@@ -2390,7 +2396,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B152" s="1">
         <v>11</v>
@@ -2402,7 +2408,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B153" s="1">
         <v>2</v>
@@ -2414,7 +2420,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B154" s="1">
         <v>11</v>
@@ -2426,7 +2432,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B155" s="1">
         <v>2</v>
@@ -2445,7 +2451,7 @@
       </c>
       <c r="C156">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -2474,19 +2480,19 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="B159" s="1">
         <v>2</v>
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B160" s="1">
         <v>11</v>
@@ -2498,7 +2504,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="B161" s="1">
         <v>2</v>
@@ -2510,7 +2516,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B162" s="1">
         <v>11</v>
@@ -2522,7 +2528,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B163" s="1">
         <v>2</v>
@@ -2534,7 +2540,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B164" s="1">
         <v>11</v>
@@ -2546,7 +2552,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="B165" s="1">
         <v>2</v>
@@ -2558,19 +2564,19 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B166" s="1">
         <v>11</v>
       </c>
       <c r="C166">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B167" s="1">
         <v>2</v>
@@ -2582,7 +2588,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B168" s="1">
         <v>11</v>
@@ -2594,7 +2600,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B169" s="1">
         <v>2</v>
@@ -2618,7 +2624,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B171" s="1">
         <v>2</v>
@@ -2630,7 +2636,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B172" s="1">
         <v>11</v>
@@ -2642,7 +2648,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="B173" s="1">
         <v>2</v>
@@ -2654,19 +2660,19 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B174" s="1">
         <v>11</v>
       </c>
       <c r="C174">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B175" s="1">
         <v>2</v>
@@ -2678,7 +2684,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B176" s="1">
         <v>11</v>
@@ -2690,7 +2696,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B177" s="1">
         <v>1</v>
@@ -2702,7 +2708,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B178" s="1">
         <v>11</v>
@@ -2726,7 +2732,7 @@
     </row>
     <row r="180" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A180" s="5" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B180" s="1">
         <v>3</v>
@@ -2738,19 +2744,19 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="B181" s="1">
         <v>2</v>
       </c>
       <c r="C181">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B182" s="1">
         <v>11</v>
@@ -2762,7 +2768,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B183" s="1">
         <v>2</v>
@@ -2774,19 +2780,19 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B184" s="1">
         <v>11</v>
       </c>
       <c r="C184">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B185" s="1">
         <v>2</v>
@@ -2798,7 +2804,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B186" s="1">
         <v>11</v>
@@ -2810,7 +2816,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B187" s="1">
         <v>2</v>
@@ -2822,19 +2828,19 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B188" s="1">
         <v>8</v>
       </c>
       <c r="C188">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="7">
-        <v>72</v>
+      <c r="A189" s="6">
+        <v>22</v>
       </c>
       <c r="B189" s="1">
         <v>2</v>
@@ -2845,8 +2851,8 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="7" t="s">
-        <v>7</v>
+      <c r="A190" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B190" s="1">
         <v>11</v>
@@ -2857,8 +2863,8 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="6">
-        <v>69</v>
+      <c r="A191" s="7">
+        <v>20</v>
       </c>
       <c r="B191" s="1">
         <v>2</v>
@@ -2869,8 +2875,8 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="6" t="s">
-        <v>10</v>
+      <c r="A192" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B192" s="1">
         <v>11</v>
@@ -2882,7 +2888,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B193" s="1">
         <v>2</v>
@@ -2894,7 +2900,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B194" s="1">
         <v>11</v>
@@ -2906,7 +2912,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B195" s="1">
         <v>2</v>
@@ -2918,7 +2924,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B196" s="1">
         <v>11</v>
@@ -2930,7 +2936,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B197" s="1">
         <v>2</v>
@@ -2942,7 +2948,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B198" s="1">
         <v>11</v>
@@ -2954,7 +2960,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B199" s="1">
         <v>1</v>
@@ -2966,7 +2972,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B200" s="1">
         <v>11</v>
@@ -2990,7 +2996,7 @@
     </row>
     <row r="202" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A202" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B202" s="1">
         <v>3</v>
@@ -3001,19 +3007,19 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="7">
-        <v>1447</v>
+      <c r="A203" s="6">
+        <v>356</v>
       </c>
       <c r="B203" s="1">
         <v>3</v>
       </c>
       <c r="C203">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="7" t="s">
+      <c r="A204" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B204" s="1">
@@ -3026,19 +3032,19 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
-        <v>1293</v>
+        <v>354</v>
       </c>
       <c r="B205" s="1">
         <v>3</v>
       </c>
       <c r="C205">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B206" s="1">
         <v>11</v>
@@ -3049,20 +3055,20 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="6">
-        <v>1248</v>
+      <c r="A207" s="7">
+        <v>312</v>
       </c>
       <c r="B207" s="1">
         <v>3</v>
       </c>
       <c r="C207">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="6" t="s">
-        <v>4</v>
+      <c r="A208" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B208" s="1">
         <v>11</v>
@@ -3074,19 +3080,19 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
-        <v>1208</v>
+        <v>307</v>
       </c>
       <c r="B209" s="1">
         <v>3</v>
       </c>
       <c r="C209">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B210" s="1">
         <v>11</v>
@@ -3098,43 +3104,43 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
-        <v>1180</v>
+        <v>295</v>
       </c>
       <c r="B211" s="1">
         <v>3</v>
       </c>
       <c r="C211">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B212" s="1">
         <v>11</v>
       </c>
       <c r="C212">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="6">
-        <v>1091</v>
+        <v>288</v>
       </c>
       <c r="B213" s="1">
         <v>3</v>
       </c>
       <c r="C213">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B214" s="1">
         <v>8</v>
@@ -3146,19 +3152,19 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
-        <v>1084</v>
+        <v>287</v>
       </c>
       <c r="B215" s="1">
         <v>3</v>
       </c>
       <c r="C215">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B216" s="1">
         <v>11</v>
@@ -3170,19 +3176,19 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
-        <v>1075</v>
+        <v>280</v>
       </c>
       <c r="B217" s="1">
         <v>3</v>
       </c>
       <c r="C217">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B218" s="1">
         <v>11</v>
@@ -3194,7 +3200,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
-        <v>981</v>
+        <v>266</v>
       </c>
       <c r="B219" s="1">
         <v>3</v>
@@ -3206,19 +3212,19 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B220" s="1">
         <v>11</v>
       </c>
       <c r="C220">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
-        <v>974</v>
+        <v>227</v>
       </c>
       <c r="B221" s="1">
         <v>3</v>
@@ -3230,7 +3236,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B222" s="1">
         <v>11</v>
@@ -3254,7 +3260,7 @@
     </row>
     <row r="224" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A224" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B224" s="1">
         <v>3</v>
@@ -3266,7 +3272,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
-        <v>3.63</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="B225" s="1">
         <v>4</v>
@@ -3278,7 +3284,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B226" s="1">
         <v>11</v>
@@ -3290,7 +3296,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
-        <v>3.64</v>
+        <v>2.36</v>
       </c>
       <c r="B227" s="1">
         <v>4</v>
@@ -3302,7 +3308,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B228" s="1">
         <v>11</v>
@@ -3313,8 +3319,8 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="6">
-        <v>3.64</v>
+      <c r="A229" s="7">
+        <v>2.41</v>
       </c>
       <c r="B229" s="1">
         <v>4</v>
@@ -3325,7 +3331,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="6" t="s">
+      <c r="A230" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B230" s="1">
@@ -3337,8 +3343,8 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="7">
-        <v>3.71</v>
+      <c r="A231" s="6">
+        <v>2.67</v>
       </c>
       <c r="B231" s="1">
         <v>4</v>
@@ -3349,8 +3355,8 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="7" t="s">
-        <v>7</v>
+      <c r="A232" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B232" s="1">
         <v>11</v>
@@ -3362,7 +3368,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
-        <v>3.72</v>
+        <v>2.76</v>
       </c>
       <c r="B233" s="1">
         <v>4</v>
@@ -3374,7 +3380,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B234" s="1">
         <v>11</v>
@@ -3386,7 +3392,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
-        <v>3.76</v>
+        <v>2.88</v>
       </c>
       <c r="B235" s="1">
         <v>4</v>
@@ -3398,19 +3404,19 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B236" s="1">
         <v>8</v>
       </c>
       <c r="C236">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
-        <v>3.81</v>
+        <v>2.88</v>
       </c>
       <c r="B237" s="1">
         <v>4</v>
@@ -3422,7 +3428,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B238" s="1">
         <v>11</v>
@@ -3434,7 +3440,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
-        <v>3.86</v>
+        <v>2.95</v>
       </c>
       <c r="B239" s="1">
         <v>4</v>
@@ -3446,7 +3452,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B240" s="1">
         <v>11</v>
@@ -3458,7 +3464,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
-        <v>3.87</v>
+        <v>3.03</v>
       </c>
       <c r="B241" s="1">
         <v>4</v>
@@ -3470,19 +3476,19 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B242" s="1">
         <v>11</v>
       </c>
       <c r="C242">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
-        <v>3.91</v>
+        <v>3.83</v>
       </c>
       <c r="B243" s="1">
         <v>4</v>
@@ -3494,7 +3500,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B244" s="1">
         <v>11</v>
@@ -3518,7 +3524,7 @@
     </row>
     <row r="246" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A246" s="5" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B246" s="1">
         <v>3</v>
@@ -3530,19 +3536,19 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="6">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="B247" s="1">
         <v>4</v>
       </c>
       <c r="C247">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B248" s="1">
         <v>11</v>
@@ -3554,7 +3560,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
       <c r="B249" s="1">
         <v>4</v>
@@ -3566,7 +3572,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B250" s="1">
         <v>11</v>
@@ -3578,7 +3584,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="6">
-        <v>1.23</v>
+        <v>1.02</v>
       </c>
       <c r="B251" s="1">
         <v>4</v>
@@ -3590,7 +3596,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B252" s="1">
         <v>11</v>
@@ -3601,8 +3607,8 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="6">
-        <v>1.26</v>
+      <c r="A253" s="7">
+        <v>1.04</v>
       </c>
       <c r="B253" s="1">
         <v>4</v>
@@ -3613,8 +3619,8 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="6" t="s">
-        <v>5</v>
+      <c r="A254" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B254" s="1">
         <v>11</v>
@@ -3625,8 +3631,8 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" s="7">
-        <v>1.26</v>
+      <c r="A255" s="6">
+        <v>1.05</v>
       </c>
       <c r="B255" s="1">
         <v>4</v>
@@ -3637,8 +3643,8 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="7" t="s">
-        <v>7</v>
+      <c r="A256" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B256" s="1">
         <v>8</v>
@@ -3650,7 +3656,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="B257" s="1">
         <v>4</v>
@@ -3662,19 +3668,19 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B258" s="1">
         <v>11</v>
       </c>
       <c r="C258">
         <f t="shared" ref="C258:C266" si="4">LEN(A258)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="B259" s="1">
         <v>4</v>
@@ -3686,19 +3692,19 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B260" s="1">
         <v>11</v>
       </c>
       <c r="C260">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="B261" s="1">
         <v>4</v>
@@ -3710,7 +3716,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B262" s="1">
         <v>11</v>
@@ -3722,19 +3728,19 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
-        <v>1.28</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B263" s="1">
         <v>4</v>
       </c>
       <c r="C263">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B264" s="1">
         <v>11</v>
@@ -3746,7 +3752,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="B265" s="1">
         <v>4</v>
@@ -3758,7 +3764,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B266" s="1">
         <v>11</v>

--- a/TestFile_051522.xlsx
+++ b/TestFile_051522.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorkelleher/PycharmProjects/fantasy_project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B22B261-1B9D-7D44-96CC-BD2EEA3D38EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F615C9-0BFE-DA44-B635-606A3DF15583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{3B96CC93-BE6F-6841-A189-891B5E36CD98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="35">
   <si>
     <t>HITTING CATEGORIES</t>
   </si>
@@ -112,9 +112,6 @@
     <t>ERA</t>
   </si>
   <si>
-    <t>4th</t>
-  </si>
-  <si>
     <t>WHIP</t>
   </si>
   <si>
@@ -137,6 +134,12 @@
   </si>
   <si>
     <t>6th</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>5th</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:A266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -602,7 +605,7 @@
     </row>
     <row r="3" spans="1:6" ht="40" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -612,15 +615,15 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -643,8 +646,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>203</v>
+      <c r="A6" s="7">
+        <v>236</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -655,8 +658,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>3</v>
+      <c r="A7" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>11</v>
@@ -668,7 +671,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -680,7 +683,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11</v>
@@ -691,8 +694,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>202</v>
+      <c r="A10" s="6">
+        <v>228</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -703,8 +706,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>6</v>
+      <c r="A11" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>11</v>
@@ -716,7 +719,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -728,19 +731,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -752,19 +755,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -776,7 +779,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1">
         <v>11</v>
@@ -788,7 +791,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -800,7 +803,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
         <v>11</v>
@@ -812,7 +815,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -836,7 +839,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -872,7 +875,7 @@
     </row>
     <row r="25" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1">
         <v>5</v>
@@ -884,7 +887,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -908,7 +911,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -931,8 +934,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>61</v>
+      <c r="A30" s="7">
+        <v>64</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -943,8 +946,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>5</v>
+      <c r="A31" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B31" s="1">
         <v>11</v>
@@ -955,8 +958,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>61</v>
+      <c r="A32" s="6">
+        <v>62</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -967,8 +970,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>6</v>
+      <c r="A33" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B33" s="1">
         <v>11</v>
@@ -980,7 +983,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -992,7 +995,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1">
         <v>11</v>
@@ -1004,7 +1007,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
@@ -1016,7 +1019,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1">
         <v>11</v>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
@@ -1052,7 +1055,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
@@ -1076,7 +1079,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -1100,7 +1103,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -1136,7 +1139,7 @@
     </row>
     <row r="47" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B47" s="1">
         <v>5</v>
@@ -1148,7 +1151,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
@@ -1172,7 +1175,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B50" s="1">
         <v>3</v>
@@ -1196,7 +1199,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="B52" s="1">
         <v>3</v>
@@ -1208,7 +1211,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B53" s="1">
         <v>11</v>
@@ -1220,7 +1223,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
@@ -1232,7 +1235,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B55" s="1">
         <v>11</v>
@@ -1244,7 +1247,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="B56" s="1">
         <v>3</v>
@@ -1256,7 +1259,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B57" s="1">
         <v>11</v>
@@ -1267,8 +1270,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
-        <v>188</v>
+      <c r="A58" s="6">
+        <v>203</v>
       </c>
       <c r="B58" s="1">
         <v>3</v>
@@ -1279,8 +1282,8 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>6</v>
+      <c r="A59" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B59" s="1">
         <v>11</v>
@@ -1292,7 +1295,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B60" s="1">
         <v>3</v>
@@ -1304,19 +1307,19 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B61" s="1">
         <v>11</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
-        <v>182</v>
+      <c r="A62" s="7">
+        <v>198</v>
       </c>
       <c r="B62" s="1">
         <v>3</v>
@@ -1327,8 +1330,8 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>2</v>
+      <c r="A63" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B63" s="1">
         <v>11</v>
@@ -1340,7 +1343,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B64" s="1">
         <v>3</v>
@@ -1352,19 +1355,19 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" s="1">
         <v>11</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B66" s="1">
         <v>3</v>
@@ -1376,7 +1379,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B67" s="1">
         <v>8</v>
@@ -1400,7 +1403,7 @@
     </row>
     <row r="69" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B69" s="1">
         <v>5</v>
@@ -1412,7 +1415,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B70" s="1">
         <v>2</v>
@@ -1448,14 +1451,14 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B73" s="1">
         <v>11</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1472,19 +1475,19 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B75" s="1">
         <v>11</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B76" s="1">
         <v>2</v>
@@ -1508,7 +1511,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -1520,7 +1523,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B79" s="1">
         <v>8</v>
@@ -1532,7 +1535,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B80" s="1">
         <v>2</v>
@@ -1544,7 +1547,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B81" s="1">
         <v>11</v>
@@ -1555,33 +1558,33 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+      <c r="A82" s="7">
+        <v>23</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="1">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
         <v>21</v>
       </c>
-      <c r="B82" s="1">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="1">
-        <v>11</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="7">
-        <v>19</v>
-      </c>
       <c r="B84" s="1">
         <v>2</v>
       </c>
@@ -1591,8 +1594,8 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
-        <v>6</v>
+      <c r="A85" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="B85" s="1">
         <v>11</v>
@@ -1604,7 +1607,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B86" s="1">
         <v>2</v>
@@ -1616,7 +1619,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B87" s="1">
         <v>11</v>
@@ -1628,19 +1631,19 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B89" s="1">
         <v>11</v>
@@ -1664,7 +1667,7 @@
     </row>
     <row r="91" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
@@ -1676,7 +1679,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
-        <v>0.29399999999999998</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="B92" s="1">
         <v>5</v>
@@ -1712,7 +1715,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B95" s="1">
         <v>11</v>
@@ -1724,7 +1727,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
-        <v>0.27600000000000002</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="B96" s="1">
         <v>5</v>
@@ -1736,7 +1739,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B97" s="1">
         <v>11</v>
@@ -1747,8 +1750,8 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="7">
-        <v>0.27100000000000002</v>
+      <c r="A98" s="6">
+        <v>0.26700000000000002</v>
       </c>
       <c r="B98" s="1">
         <v>4</v>
@@ -1759,32 +1762,32 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="1">
+        <v>11</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="B100" s="1">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="B99" s="1">
-        <v>11</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="B100" s="1">
-        <v>5</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="B101" s="1">
         <v>11</v>
@@ -1796,7 +1799,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
-        <v>0.26100000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="B102" s="1">
         <v>5</v>
@@ -1808,7 +1811,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103" s="1">
         <v>11</v>
@@ -1820,7 +1823,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
-        <v>0.25600000000000001</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="B104" s="1">
         <v>5</v>
@@ -1832,7 +1835,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B105" s="1">
         <v>11</v>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
-        <v>0.254</v>
+        <v>0.251</v>
       </c>
       <c r="B106" s="1">
         <v>5</v>
@@ -1868,31 +1871,31 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
-        <v>0.251</v>
+        <v>0.25</v>
       </c>
       <c r="B108" s="1">
         <v>5</v>
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B109" s="1">
         <v>11</v>
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
-        <v>0.24399999999999999</v>
+        <v>0.249</v>
       </c>
       <c r="B110" s="1">
         <v>5</v>
@@ -1904,14 +1907,14 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B111" s="1">
         <v>8</v>
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -1928,7 +1931,7 @@
     </row>
     <row r="113" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A113" s="5" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B113" s="1">
         <v>3</v>
@@ -1940,19 +1943,19 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
-        <v>0.84299999999999997</v>
+        <v>0.85</v>
       </c>
       <c r="B114" s="1">
         <v>5</v>
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B115" s="1">
         <v>11</v>
@@ -1964,7 +1967,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
-        <v>0.84199999999999997</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="B116" s="1">
         <v>5</v>
@@ -1976,7 +1979,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B117" s="1">
         <v>11</v>
@@ -1987,8 +1990,8 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="7">
-        <v>0.83399999999999996</v>
+      <c r="A118" s="6">
+        <v>0.83499999999999996</v>
       </c>
       <c r="B118" s="1">
         <v>4</v>
@@ -1999,8 +2002,8 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
-        <v>6</v>
+      <c r="A119" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B119" s="1">
         <v>11</v>
@@ -2012,7 +2015,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
-        <v>0.81799999999999995</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="B120" s="1">
         <v>5</v>
@@ -2024,7 +2027,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B121" s="1">
         <v>11</v>
@@ -2035,8 +2038,8 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="6">
-        <v>0.80100000000000005</v>
+      <c r="A122" s="7">
+        <v>0.80400000000000005</v>
       </c>
       <c r="B122" s="1">
         <v>5</v>
@@ -2047,8 +2050,8 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
-        <v>5</v>
+      <c r="A123" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B123" s="1">
         <v>11</v>
@@ -2060,7 +2063,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
-        <v>0.78500000000000003</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="B124" s="1">
         <v>5</v>
@@ -2072,7 +2075,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B125" s="1">
         <v>11</v>
@@ -2084,7 +2087,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
-        <v>0.751</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="B126" s="1">
         <v>5</v>
@@ -2108,7 +2111,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
-        <v>0.749</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="B128" s="1">
         <v>5</v>
@@ -2132,7 +2135,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
-        <v>0.74099999999999999</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="B130" s="1">
         <v>5</v>
@@ -2156,7 +2159,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
-        <v>0.73799999999999999</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="B132" s="1">
         <v>5</v>
@@ -2204,7 +2207,7 @@
     </row>
     <row r="136" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A136" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B136" s="1">
         <v>5</v>
@@ -2216,7 +2219,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B137" s="1">
         <v>2</v>
@@ -2228,55 +2231,55 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="1">
+        <v>11</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="6">
+        <v>30</v>
+      </c>
+      <c r="B139" s="1">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B138" s="1">
-        <v>11</v>
-      </c>
-      <c r="C138">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="7">
-        <v>25</v>
-      </c>
-      <c r="B139" s="1">
-        <v>2</v>
-      </c>
-      <c r="C139">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="7" t="s">
+      <c r="B140" s="1">
+        <v>11</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="7">
+        <v>27</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="B140" s="1">
-        <v>11</v>
-      </c>
-      <c r="C140">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="6">
-        <v>24</v>
-      </c>
-      <c r="B141" s="1">
-        <v>2</v>
-      </c>
-      <c r="C141">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="B142" s="1">
         <v>11</v>
@@ -2288,7 +2291,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B143" s="1">
         <v>2</v>
@@ -2300,7 +2303,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B144" s="1">
         <v>11</v>
@@ -2312,7 +2315,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B145" s="1">
         <v>2</v>
@@ -2336,7 +2339,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B147" s="1">
         <v>2</v>
@@ -2360,7 +2363,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B149" s="1">
         <v>2</v>
@@ -2384,7 +2387,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B151" s="1">
         <v>2</v>
@@ -2432,7 +2435,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B155" s="1">
         <v>2</v>
@@ -2480,7 +2483,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B159" s="1">
         <v>2</v>
@@ -2504,7 +2507,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B161" s="1">
         <v>2</v>
@@ -2528,7 +2531,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B163" s="1">
         <v>2</v>
@@ -2540,7 +2543,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B164" s="1">
         <v>11</v>
@@ -2552,7 +2555,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B165" s="1">
         <v>2</v>
@@ -2564,7 +2567,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B166" s="1">
         <v>11</v>
@@ -2576,7 +2579,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B167" s="1">
         <v>2</v>
@@ -2588,7 +2591,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B168" s="1">
         <v>11</v>
@@ -2600,7 +2603,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B169" s="1">
         <v>2</v>
@@ -2612,7 +2615,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B170" s="1">
         <v>8</v>
@@ -2624,7 +2627,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B171" s="1">
         <v>2</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B172" s="1">
         <v>11</v>
@@ -2648,7 +2651,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B173" s="1">
         <v>2</v>
@@ -2672,7 +2675,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B175" s="1">
         <v>2</v>
@@ -2696,7 +2699,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B177" s="1">
         <v>1</v>
@@ -2732,7 +2735,7 @@
     </row>
     <row r="180" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A180" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B180" s="1">
         <v>3</v>
@@ -2744,7 +2747,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B181" s="1">
         <v>2</v>
@@ -2756,7 +2759,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B182" s="1">
         <v>11</v>
@@ -2768,7 +2771,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B183" s="1">
         <v>2</v>
@@ -2780,7 +2783,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B184" s="1">
         <v>11</v>
@@ -2792,7 +2795,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B185" s="1">
         <v>2</v>
@@ -2839,7 +2842,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="6">
+      <c r="A189" s="7">
         <v>22</v>
       </c>
       <c r="B189" s="1">
@@ -2851,8 +2854,8 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="6" t="s">
-        <v>2</v>
+      <c r="A190" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B190" s="1">
         <v>11</v>
@@ -2863,7 +2866,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="7">
+      <c r="A191" s="6">
         <v>20</v>
       </c>
       <c r="B191" s="1">
@@ -2875,8 +2878,8 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="7" t="s">
-        <v>6</v>
+      <c r="A192" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B192" s="1">
         <v>11</v>
@@ -2900,7 +2903,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B194" s="1">
         <v>11</v>
@@ -2924,7 +2927,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B196" s="1">
         <v>11</v>
@@ -2936,7 +2939,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B197" s="1">
         <v>2</v>
@@ -2948,7 +2951,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B198" s="1">
         <v>11</v>
@@ -2960,19 +2963,19 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B199" s="1">
         <v>1</v>
       </c>
       <c r="C199">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B200" s="1">
         <v>11</v>
@@ -2996,7 +2999,7 @@
     </row>
     <row r="202" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A202" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B202" s="1">
         <v>3</v>
@@ -3008,7 +3011,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="6">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="B203" s="1">
         <v>3</v>
@@ -3020,7 +3023,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B204" s="1">
         <v>11</v>
@@ -3032,7 +3035,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="6">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="B205" s="1">
         <v>3</v>
@@ -3044,7 +3047,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B206" s="1">
         <v>11</v>
@@ -3055,8 +3058,8 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="7">
-        <v>312</v>
+      <c r="A207" s="6">
+        <v>345</v>
       </c>
       <c r="B207" s="1">
         <v>3</v>
@@ -3067,8 +3070,8 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="7" t="s">
-        <v>6</v>
+      <c r="A208" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B208" s="1">
         <v>11</v>
@@ -3080,7 +3083,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="B209" s="1">
         <v>3</v>
@@ -3104,7 +3107,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="B211" s="1">
         <v>3</v>
@@ -3116,7 +3119,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B212" s="1">
         <v>11</v>
@@ -3127,8 +3130,8 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="6">
-        <v>288</v>
+      <c r="A213" s="7">
+        <v>316</v>
       </c>
       <c r="B213" s="1">
         <v>3</v>
@@ -3139,8 +3142,8 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="6" t="s">
-        <v>3</v>
+      <c r="A214" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B214" s="1">
         <v>8</v>
@@ -3152,7 +3155,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="B215" s="1">
         <v>3</v>
@@ -3176,7 +3179,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B217" s="1">
         <v>3</v>
@@ -3188,7 +3191,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B218" s="1">
         <v>11</v>
@@ -3200,7 +3203,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="B219" s="1">
         <v>3</v>
@@ -3224,7 +3227,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="B221" s="1">
         <v>3</v>
@@ -3272,7 +3275,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="6">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="B225" s="1">
         <v>4</v>
@@ -3296,7 +3299,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="6">
-        <v>2.36</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="B227" s="1">
         <v>4</v>
@@ -3308,7 +3311,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B228" s="1">
         <v>11</v>
@@ -3320,7 +3323,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="7">
-        <v>2.41</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="B229" s="1">
         <v>4</v>
@@ -3344,7 +3347,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="6">
-        <v>2.67</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="B231" s="1">
         <v>4</v>
@@ -3356,7 +3359,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B232" s="1">
         <v>11</v>
@@ -3368,7 +3371,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
-        <v>2.76</v>
+        <v>2.69</v>
       </c>
       <c r="B233" s="1">
         <v>4</v>
@@ -3380,7 +3383,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B234" s="1">
         <v>11</v>
@@ -3392,7 +3395,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="6">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="B235" s="1">
         <v>4</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B236" s="1">
         <v>8</v>
@@ -3416,7 +3419,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="6">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="B237" s="1">
         <v>4</v>
@@ -3440,7 +3443,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="6">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="B239" s="1">
         <v>4</v>
@@ -3452,7 +3455,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B240" s="1">
         <v>11</v>
@@ -3464,7 +3467,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="6">
-        <v>3.03</v>
+        <v>3.52</v>
       </c>
       <c r="B241" s="1">
         <v>4</v>
@@ -3488,7 +3491,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
-        <v>3.83</v>
+        <v>3.84</v>
       </c>
       <c r="B243" s="1">
         <v>4</v>
@@ -3512,7 +3515,7 @@
     </row>
     <row r="245" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B245" s="1">
         <v>4</v>
@@ -3524,7 +3527,7 @@
     </row>
     <row r="246" spans="1:3" ht="39" x14ac:dyDescent="0.45">
       <c r="A246" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B246" s="1">
         <v>3</v>
@@ -3560,7 +3563,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="B249" s="1">
         <v>4</v>
@@ -3572,55 +3575,55 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B250" s="1">
+        <v>11</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="7">
+        <v>1.03</v>
+      </c>
+      <c r="B251" s="1">
+        <v>4</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" s="1">
+        <v>11</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="6">
+        <v>1.03</v>
+      </c>
+      <c r="B253" s="1">
+        <v>4</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B250" s="1">
-        <v>11</v>
-      </c>
-      <c r="C250">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="6">
-        <v>1.02</v>
-      </c>
-      <c r="B251" s="1">
-        <v>4</v>
-      </c>
-      <c r="C251">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B252" s="1">
-        <v>11</v>
-      </c>
-      <c r="C252">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="7">
-        <v>1.04</v>
-      </c>
-      <c r="B253" s="1">
-        <v>4</v>
-      </c>
-      <c r="C253">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="B254" s="1">
         <v>11</v>
@@ -3632,7 +3635,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="B255" s="1">
         <v>4</v>
@@ -3644,7 +3647,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B256" s="1">
         <v>8</v>
@@ -3656,7 +3659,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="B257" s="1">
         <v>4</v>
@@ -3668,19 +3671,19 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B258" s="1">
         <v>11</v>
       </c>
       <c r="C258">
         <f t="shared" ref="C258:C266" si="4">LEN(A258)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="B259" s="1">
         <v>4</v>
@@ -3692,7 +3695,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B260" s="1">
         <v>11</v>
@@ -3704,7 +3707,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="B261" s="1">
         <v>4</v>
@@ -3716,7 +3719,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B262" s="1">
         <v>11</v>
@@ -3728,31 +3731,31 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="B263" s="1">
         <v>4</v>
       </c>
       <c r="C263">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B264" s="1">
         <v>11</v>
       </c>
       <c r="C264">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="B265" s="1">
         <v>4</v>
